--- a/data/trans_bre/P1802_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1802_2016_2023-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>4.346574987776155</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.81893584770076</v>
+        <v>4.818935847700762</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.4239022639509916</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.6203564048100612</v>
+        <v>0.6203564048100615</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6720687378492491</v>
+        <v>-0.1786224652509586</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.762197176264935</v>
+        <v>-1.108020845002645</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.05723454636987795</v>
+        <v>-0.02309934043227796</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2045880931636967</v>
+        <v>-0.1510498905772304</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.450451434109741</v>
+        <v>9.106549256347346</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.29315329105704</v>
+        <v>11.27994113860435</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1.048922980674738</v>
+        <v>1.227918374036816</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.40378855095263</v>
+        <v>2.299643195715915</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>3.802749399875771</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.780782504739967</v>
+        <v>1.780782504739964</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.3334212112727546</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.188747460096034</v>
+        <v>0.1887474600960337</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2109955147371958</v>
+        <v>-0.02421972320235797</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.940177084167922</v>
+        <v>-2.847511202909535</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03242121441714953</v>
+        <v>-0.005833058591917035</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2535630560977983</v>
+        <v>-0.2325184072779022</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.69411572072605</v>
+        <v>8.134259719353757</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.052077563463423</v>
+        <v>5.763573694640178</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7845243944854065</v>
+        <v>0.8396557533784516</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.910222749485173</v>
+        <v>0.8592437879533955</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.917250405064399</v>
+        <v>-1.721290691740097</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.953446723099293</v>
+        <v>-5.142007146649155</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1289505574683192</v>
+        <v>-0.1226154489178149</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2614472095872262</v>
+        <v>-0.2813224246118026</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.112051883535232</v>
+        <v>5.496572927143953</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.760305867904108</v>
+        <v>2.99727520173659</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.5330940719026031</v>
+        <v>0.4719915102057922</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.201146084754719</v>
+        <v>0.2136676854790578</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-0.4770022247747474</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>5.493102326936147</v>
+        <v>5.49310232693615</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.02852438599772771</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.3406030052104667</v>
+        <v>0.3406030052104669</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.281369735556939</v>
+        <v>-4.715322737919426</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.80031217049407</v>
+        <v>1.705842051409052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2361526329790224</v>
+        <v>-0.2463100266736855</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08754755868601583</v>
+        <v>0.0924270872794712</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.937343012989158</v>
+        <v>3.841787852257703</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.11848273145787</v>
+        <v>8.953065935464718</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2761393429118369</v>
+        <v>0.2603111912746461</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.647803307208069</v>
+        <v>0.6439086255982694</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.303378840287551</v>
+        <v>4.506324494273485</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.803134325707358</v>
+        <v>1.837237696208682</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.2851598179945888</v>
+        <v>0.2355724427814926</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.0800729328287367</v>
+        <v>0.08157838002361102</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.68128541076004</v>
+        <v>15.27864244228499</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.873030716471238</v>
+        <v>9.635076980350044</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.237578379971131</v>
+        <v>1.164783097411118</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.5647895780702598</v>
+        <v>0.5474711307983405</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>8.067629020813721</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.09556061423665</v>
+        <v>3.095560614236642</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.4837794174174475</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.1691059133424438</v>
+        <v>0.1691059133424433</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.30127782551522</v>
+        <v>1.781754397814982</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.9951971598510011</v>
+        <v>-1.216908360237198</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1099223615607125</v>
+        <v>0.08706135061678959</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0528762975729971</v>
+        <v>-0.05701925017166455</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.79298694692342</v>
+        <v>14.1779531656082</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.476372063767234</v>
+        <v>7.285571867719305</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.021809822636786</v>
+        <v>1.042186147998512</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4679858099614427</v>
+        <v>0.4659689104559936</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>5.428897411033865</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.991726378526115</v>
+        <v>4.991726378526118</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.2949463818011724</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.3208658506531478</v>
+        <v>0.320865850653148</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.116882238510697</v>
+        <v>-1.149959568561386</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7097300593666753</v>
+        <v>0.2362329888210107</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.05565375619903155</v>
+        <v>-0.05763973533974263</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.03949449018558492</v>
+        <v>0.01249559996808068</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.97407176387255</v>
+        <v>12.08499578581692</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.501441029875753</v>
+        <v>9.034332521408619</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.8093973330096237</v>
+        <v>0.781165232419622</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.7447588402307477</v>
+        <v>0.6901218902702367</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>4.516226054382316</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>3.626124397624131</v>
+        <v>3.626124397624134</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.3143858877609284</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.239763453345172</v>
+        <v>0.2397634533451722</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.664786226943249</v>
+        <v>2.671608683262733</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.080760508194669</v>
+        <v>1.911919311142511</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1707465894541474</v>
+        <v>0.1724525277123475</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1267188506876166</v>
+        <v>0.1156803848074541</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.295307463130184</v>
+        <v>6.268098569738142</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.326425410326905</v>
+        <v>5.181978373419635</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4607974879636407</v>
+        <v>0.4702182026221208</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3740053932370973</v>
+        <v>0.3607613928537574</v>
       </c>
     </row>
     <row r="28">
